--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.003050666666666667</v>
+        <v>0.0002446666666666666</v>
       </c>
       <c r="H2">
-        <v>0.009152</v>
+        <v>0.000734</v>
       </c>
       <c r="I2">
-        <v>0.02231405966182692</v>
+        <v>0.001827111446330468</v>
       </c>
       <c r="J2">
-        <v>0.02231405966182692</v>
+        <v>0.001827111446330468</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N2">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O2">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P2">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q2">
-        <v>0.5546820537671111</v>
+        <v>0.1764378583097778</v>
       </c>
       <c r="R2">
-        <v>4.992138483903999</v>
+        <v>1.587940724788</v>
       </c>
       <c r="S2">
-        <v>0.0131614949160412</v>
+        <v>0.001554544529219638</v>
       </c>
       <c r="T2">
-        <v>0.0131614949160412</v>
+        <v>0.001554544529219638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.003050666666666667</v>
+        <v>0.0002446666666666666</v>
       </c>
       <c r="H3">
-        <v>0.009152</v>
+        <v>0.000734</v>
       </c>
       <c r="I3">
-        <v>0.02231405966182692</v>
+        <v>0.001827111446330468</v>
       </c>
       <c r="J3">
-        <v>0.02231405966182692</v>
+        <v>0.001827111446330468</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.10336</v>
       </c>
       <c r="O3">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P3">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q3">
-        <v>0.007223327857777779</v>
+        <v>0.0005793184711111111</v>
       </c>
       <c r="R3">
-        <v>0.06500995072</v>
+        <v>0.00521386624</v>
       </c>
       <c r="S3">
-        <v>0.000171395112265444</v>
+        <v>5.104212715847474E-06</v>
       </c>
       <c r="T3">
-        <v>0.000171395112265444</v>
+        <v>5.104212715847474E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.003050666666666667</v>
+        <v>0.0002446666666666666</v>
       </c>
       <c r="H4">
-        <v>0.009152</v>
+        <v>0.000734</v>
       </c>
       <c r="I4">
-        <v>0.02231405966182692</v>
+        <v>0.001827111446330468</v>
       </c>
       <c r="J4">
-        <v>0.02231405966182692</v>
+        <v>0.001827111446330468</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>372.218789</v>
       </c>
       <c r="O4">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P4">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q4">
-        <v>0.3785051507697778</v>
+        <v>0.03035651012511111</v>
       </c>
       <c r="R4">
-        <v>3.406546356928</v>
+        <v>0.273208591126</v>
       </c>
       <c r="S4">
-        <v>0.008981169633520275</v>
+        <v>0.0002674627043949831</v>
       </c>
       <c r="T4">
-        <v>0.008981169633520275</v>
+        <v>0.0002674627043949832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.4009929999999999</v>
       </c>
       <c r="I5">
-        <v>0.977685940338173</v>
+        <v>0.9981728885536695</v>
       </c>
       <c r="J5">
-        <v>0.9776859403381731</v>
+        <v>0.9981728885536695</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.8232256666666</v>
+        <v>721.1356606666667</v>
       </c>
       <c r="N5">
-        <v>545.4696769999999</v>
+        <v>2163.406982</v>
       </c>
       <c r="O5">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="P5">
-        <v>0.5898296910336229</v>
+        <v>0.8508208584329936</v>
       </c>
       <c r="Q5">
-        <v>24.30328024325121</v>
+        <v>96.39011732590286</v>
       </c>
       <c r="R5">
-        <v>218.7295221892609</v>
+        <v>867.5110559331258</v>
       </c>
       <c r="S5">
-        <v>0.5766681961175817</v>
+        <v>0.8492663139037739</v>
       </c>
       <c r="T5">
-        <v>0.5766681961175818</v>
+        <v>0.8492663139037739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.4009929999999999</v>
       </c>
       <c r="I6">
-        <v>0.977685940338173</v>
+        <v>0.9981728885536695</v>
       </c>
       <c r="J6">
-        <v>0.9776859403381731</v>
+        <v>0.9981728885536695</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.10336</v>
       </c>
       <c r="O6">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="P6">
-        <v>0.007681036748263821</v>
+        <v>0.002793596814304166</v>
       </c>
       <c r="Q6">
         <v>0.3164886262755555</v>
@@ -818,10 +818,10 @@
         <v>2.84839763648</v>
       </c>
       <c r="S6">
-        <v>0.007509641635998376</v>
+        <v>0.002788492601588318</v>
       </c>
       <c r="T6">
-        <v>0.007509641635998377</v>
+        <v>0.002788492601588318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.4009929999999999</v>
       </c>
       <c r="I7">
-        <v>0.977685940338173</v>
+        <v>0.9981728885536695</v>
       </c>
       <c r="J7">
-        <v>0.9776859403381731</v>
+        <v>0.9981728885536695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>372.218789</v>
       </c>
       <c r="O7">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="P7">
-        <v>0.4024892722181133</v>
+        <v>0.1463855447527022</v>
       </c>
       <c r="Q7">
         <v>16.58412542860855</v>
@@ -880,10 +880,10 @@
         <v>149.257128857477</v>
       </c>
       <c r="S7">
-        <v>0.393508102584593</v>
+        <v>0.1461180820483072</v>
       </c>
       <c r="T7">
-        <v>0.393508102584593</v>
+        <v>0.1461180820483072</v>
       </c>
     </row>
   </sheetData>
